--- a/ThongKe/DoanhThuNhaGa_BieuDoCot.xlsx
+++ b/ThongKe/DoanhThuNhaGa_BieuDoCot.xlsx
@@ -352,7 +352,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="n" s="6">
-        <v>1.697413275E9</v>
+        <v>1.698282675E9</v>
       </c>
     </row>
     <row r="4">
